--- a/online/Online.xlsx
+++ b/online/Online.xlsx
@@ -10,6 +10,22 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="E12">
+      <text>
+        <t xml:space="preserve">+swy351041603@gmail.com this data points seems an outlier.
+	-Heng Li</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
   <si>
@@ -80,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -90,8 +106,15 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
     <font/>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -109,30 +132,36 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,8 +499,8 @@
       <c r="D5" s="1">
         <v>2.08</v>
       </c>
-      <c r="E5" s="1">
-        <v>21.78</v>
+      <c r="E5" s="2">
+        <v>20.66</v>
       </c>
       <c r="F5" s="1">
         <v>118.25</v>
@@ -501,7 +530,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -524,7 +553,7 @@
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -553,12 +582,12 @@
       <c r="H9" s="1">
         <v>0.999773607568634</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -570,7 +599,7 @@
       <c r="C10" s="1">
         <v>-0.00272</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>-0.00556</v>
       </c>
       <c r="E10" s="1">
@@ -599,7 +628,7 @@
       <c r="D11" s="1">
         <v>0.01127</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>-3.0E-4</v>
       </c>
       <c r="F11" s="1">
@@ -625,8 +654,8 @@
       <c r="D12" s="1">
         <v>0.072115</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.27089</v>
+      <c r="E12" s="2">
+        <v>0.05857</v>
       </c>
       <c r="F12" s="1">
         <v>0.074334</v>
@@ -656,12 +685,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -669,586 +698,587 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>377.03</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>189.02</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>37.44</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>3.81</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>0.43</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>0.16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>1049.66</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>533.54</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>103.25</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>10.54</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>1.37</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>0.65</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>11729.95</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>552.12</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>110.9</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>11.58</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>1.48</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>0.71</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>701.13</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>337.05</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>124.65</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>12.66</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>1.62</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>0.73</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>340.12</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>170.42</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>33.76</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>3.51</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>0.44</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>0.17</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>738.39</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>360.21</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>72.85</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>8.52</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>1.42</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>0.68</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7">
+      <c r="B25" s="6"/>
+      <c r="C25" s="8">
         <v>392.93</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>79.94</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>9.29</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>1.53</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
         <v>0.72</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>1554.46</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>995.85</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>121.79</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>10.82</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>1.56</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <v>0.72</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>467.83</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>215.31</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>48.26</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>5.43</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>0.45</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
         <v>0.18</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>1255.57</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>510.92</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>135.17</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>13.13</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>1.53</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <v>0.73</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8">
         <v>629.21</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>169.34</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>15.02</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>1.67</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>0.78</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>888.9</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>739.89</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>167.84</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>16.42</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>1.78</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>0.81</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>109.46</v>
       </c>
-      <c r="C35" s="7">
-        <v>15.88</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C35" s="9">
+        <v>19.45</v>
+      </c>
+      <c r="D35" s="8">
         <v>1.93</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>0.28</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>0.13</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>498.11</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>72.63</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <v>10.19</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>1.34</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>0.67</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>534.15</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>80.15</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>11.01</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <v>1.45</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>0.7</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>2298.93</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>82.73</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
         <v>10.82</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>1.22</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>0.61</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>72.63</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>5.11</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <v>0.41</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>0.16</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>535.8</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>24.56</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <v>1.72</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <v>0.81</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>243.13</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>25.47</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="8">
         <v>2.25</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <v>1.03</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>236.48</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>23.59</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <v>2.09</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="8">
         <v>1.04</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:G7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/online/Online.xlsx
+++ b/online/Online.xlsx
@@ -10,22 +10,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E12">
-      <text>
-        <t xml:space="preserve">+swy351041603@gmail.com this data points seems an outlier.
-	-Heng Li</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
   <si>
@@ -96,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -109,7 +93,6 @@
     <font>
       <color rgb="FF000000"/>
     </font>
-    <font/>
     <font>
       <name val="Arial"/>
     </font>
@@ -132,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -145,22 +128,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -553,7 +533,7 @@
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -582,12 +562,12 @@
       <c r="H9" s="1">
         <v>0.999773607568634</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -599,7 +579,7 @@
       <c r="C10" s="1">
         <v>-0.00272</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>-0.00556</v>
       </c>
       <c r="E10" s="1">
@@ -628,7 +608,7 @@
       <c r="D11" s="1">
         <v>0.01127</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>-3.0E-4</v>
       </c>
       <c r="F11" s="1">
@@ -690,7 +670,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -724,22 +704,22 @@
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>377.03</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>189.02</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="4">
         <v>37.44</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="4">
         <v>3.81</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>0.43</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>0.16</v>
       </c>
     </row>
@@ -747,22 +727,22 @@
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>1049.66</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>533.54</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="4">
         <v>103.25</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="4">
         <v>10.54</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>1.37</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>0.65</v>
       </c>
     </row>
@@ -770,22 +750,22 @@
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>11729.95</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <v>552.12</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="4">
         <v>110.9</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="4">
         <v>11.58</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>1.48</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>0.71</v>
       </c>
     </row>
@@ -793,22 +773,22 @@
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="4">
         <v>701.13</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>337.05</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="4">
         <v>124.65</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <v>12.66</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>1.62</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>0.73</v>
       </c>
     </row>
@@ -848,22 +828,22 @@
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="4">
         <v>340.12</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="4">
         <v>170.42</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="4">
         <v>33.76</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="4">
         <v>3.51</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>0.44</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <v>0.17</v>
       </c>
     </row>
@@ -871,22 +851,22 @@
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="4">
         <v>738.39</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="4">
         <v>360.21</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="4">
         <v>72.85</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>8.52</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>1.42</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>0.68</v>
       </c>
     </row>
@@ -895,19 +875,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="8">
+      <c r="C25" s="4">
         <v>392.93</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="4">
         <v>79.94</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="4">
         <v>9.29</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>1.53</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4">
         <v>0.72</v>
       </c>
     </row>
@@ -915,22 +895,22 @@
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="4">
         <v>1554.46</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="4">
         <v>995.85</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="4">
         <v>121.79</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="4">
         <v>10.82</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>1.56</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="4">
         <v>0.72</v>
       </c>
     </row>
@@ -970,22 +950,22 @@
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="4">
         <v>467.83</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="4">
         <v>215.31</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="4">
         <v>48.26</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="4">
         <v>5.43</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <v>0.45</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>0.18</v>
       </c>
     </row>
@@ -993,22 +973,22 @@
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="4">
         <v>1255.57</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="4">
         <v>510.92</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="4">
         <v>135.17</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="4">
         <v>13.13</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="4">
         <v>1.53</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <v>0.73</v>
       </c>
     </row>
@@ -1017,19 +997,19 @@
         <v>19</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="8">
+      <c r="C31" s="4">
         <v>629.21</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="4">
         <v>169.34</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="4">
         <v>15.02</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <v>1.67</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="4">
         <v>0.78</v>
       </c>
     </row>
@@ -1037,22 +1017,22 @@
       <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <v>888.9</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="4">
         <v>739.89</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="4">
         <v>167.84</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="4">
         <v>16.42</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <v>1.78</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <v>0.81</v>
       </c>
     </row>
@@ -1090,19 +1070,19 @@
       <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="4">
         <v>109.46</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>19.45</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="4">
         <v>1.93</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="4">
         <v>0.28</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="4">
         <v>0.13</v>
       </c>
       <c r="G35" s="6"/>
@@ -1111,19 +1091,19 @@
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="4">
         <v>498.11</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="4">
         <v>72.63</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="4">
         <v>10.19</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="4">
         <v>1.34</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="4">
         <v>0.67</v>
       </c>
       <c r="G36" s="6"/>
@@ -1132,19 +1112,19 @@
       <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="4">
         <v>534.15</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="4">
         <v>80.15</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="4">
         <v>11.01</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="4">
         <v>1.45</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="4">
         <v>0.7</v>
       </c>
       <c r="G37" s="6"/>
@@ -1153,19 +1133,19 @@
       <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="4">
         <v>2298.93</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="4">
         <v>82.73</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="4">
         <v>10.82</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="4">
         <v>1.22</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <v>0.61</v>
       </c>
       <c r="G38" s="6"/>
@@ -1202,16 +1182,16 @@
       <c r="A41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="4">
         <v>72.63</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="4">
         <v>5.11</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="4">
         <v>0.41</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="4">
         <v>0.16</v>
       </c>
       <c r="F41" s="6"/>
@@ -1221,16 +1201,16 @@
       <c r="A42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="4">
         <v>535.8</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="4">
         <v>24.56</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="4">
         <v>1.72</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="4">
         <v>0.81</v>
       </c>
       <c r="F42" s="6"/>
@@ -1240,16 +1220,16 @@
       <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="4">
         <v>243.13</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="4">
         <v>25.47</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="4">
         <v>2.25</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="4">
         <v>1.03</v>
       </c>
       <c r="F43" s="6"/>
@@ -1259,16 +1239,16 @@
       <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="4">
         <v>236.48</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="4">
         <v>23.59</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="4">
         <v>2.09</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="4">
         <v>1.04</v>
       </c>
       <c r="F44" s="6"/>
@@ -1278,7 +1258,6 @@
   <mergeCells count="1">
     <mergeCell ref="B7:G7"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>